--- a/data/trans_dic/DC_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Edad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08174173429919501</v>
+        <v>0.08174173429919503</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2509993603074555</v>
+        <v>0.2509993603074556</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1613957846888348</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04164064940654064</v>
+        <v>0.04483112911131621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1904886850132392</v>
+        <v>0.1890663685861294</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1263625348244652</v>
+        <v>0.1251339600677106</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.141339222261059</v>
+        <v>0.1406692098856527</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3163787203927502</v>
+        <v>0.3186235551552847</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2073043097109124</v>
+        <v>0.2044532094778092</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07626394347902019</v>
+        <v>0.07347955444840439</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.217941514216995</v>
+        <v>0.2170398075166396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1582034956794765</v>
+        <v>0.1575348434098926</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1470074700878569</v>
+        <v>0.1477159067838486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2991762424705015</v>
+        <v>0.2977525187421745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2152643616897929</v>
+        <v>0.2122335861196507</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3186251498906507</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2364197487823167</v>
+        <v>0.2364197487823166</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1250072265461057</v>
+        <v>0.1246268717465931</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2884488805336272</v>
+        <v>0.2870336536413712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2139507648667819</v>
+        <v>0.2153885890230538</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1883124764753211</v>
+        <v>0.1878328965729841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3522786187816647</v>
+        <v>0.3504376171157136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2571674664701281</v>
+        <v>0.2591651309506879</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2180183907928821</v>
+        <v>0.2142818777920509</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3610160543026079</v>
+        <v>0.3601845292699464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2986753780219597</v>
+        <v>0.2987587823631639</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2807179283327514</v>
+        <v>0.2832840252311793</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4149057490825912</v>
+        <v>0.416312373066591</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3427200675449986</v>
+        <v>0.3438593546263824</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.3025127966638941</v>
+        <v>0.302512796663894</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.4627562769566361</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2694306315388414</v>
+        <v>0.2696220716233099</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4306091382200972</v>
+        <v>0.4301297658559975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3596366883718438</v>
+        <v>0.357498705438342</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3383918414390026</v>
+        <v>0.3377884852958111</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4930977854447293</v>
+        <v>0.4899547406636577</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4063700367521427</v>
+        <v>0.4068588566693619</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.3178911587399743</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.5169302724014109</v>
+        <v>0.5169302724014108</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.4211841223886797</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2807192173145967</v>
+        <v>0.2789878600201388</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4827597721868004</v>
+        <v>0.4799115535613381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3951250835804704</v>
+        <v>0.3950639540561825</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3585312173201528</v>
+        <v>0.3554434795691023</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5525325900860685</v>
+        <v>0.5490037604254541</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4489438927458019</v>
+        <v>0.4482501073232624</v>
       </c>
     </row>
     <row r="22">
@@ -897,10 +897,10 @@
         <v>0.4533241171828926</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6492047335297576</v>
+        <v>0.6492047335297575</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5707828552805492</v>
+        <v>0.5707828552805491</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4064627937060301</v>
+        <v>0.4067499766369408</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6189592899761381</v>
+        <v>0.6155012830917289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5392671817493646</v>
+        <v>0.5432167332646691</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5027552458470292</v>
+        <v>0.5019595541136086</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6822216325179969</v>
+        <v>0.679409440837494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5963744688397133</v>
+        <v>0.5980115327084521</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.4055073583044776</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.3197644847210012</v>
+        <v>0.3197644847210011</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2142706609707715</v>
+        <v>0.2149531800210417</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3911867257992023</v>
+        <v>0.3917298650096089</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.309125408094979</v>
+        <v>0.3087622451267478</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2446200034379024</v>
+        <v>0.2441449508816937</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4186926124726777</v>
+        <v>0.4190250512978294</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3310578385513819</v>
+        <v>0.3290108820829493</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>16981</v>
+        <v>18282</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>69054</v>
+        <v>68539</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>97338</v>
+        <v>96391</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>57637</v>
+        <v>57364</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>114691</v>
+        <v>115505</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>159688</v>
+        <v>157491</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36370</v>
+        <v>35042</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>109348</v>
+        <v>108896</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>154822</v>
+        <v>154167</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70106</v>
+        <v>70444</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>150107</v>
+        <v>149392</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>210663</v>
+        <v>207697</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>77609</v>
+        <v>77373</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>179759</v>
+        <v>178877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>266161</v>
+        <v>267950</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>116911</v>
+        <v>116614</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>219538</v>
+        <v>218390</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>319924</v>
+        <v>322409</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>152747</v>
+        <v>150130</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>266028</v>
+        <v>265415</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>429347</v>
+        <v>429467</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>196676</v>
+        <v>198474</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>305738</v>
+        <v>306775</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>492661</v>
+        <v>494299</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>164176</v>
+        <v>164293</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>262179</v>
+        <v>261887</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>438110</v>
+        <v>435506</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>206198</v>
+        <v>205830</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>300225</v>
+        <v>298311</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>495041</v>
+        <v>495636</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>114275</v>
+        <v>113570</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>212012</v>
+        <v>210761</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>334373</v>
+        <v>334321</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>145951</v>
+        <v>144694</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>242654</v>
+        <v>241104</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>379917</v>
+        <v>379330</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>126084</v>
+        <v>126173</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>287574</v>
+        <v>285967</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>417828</v>
+        <v>420888</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>155954</v>
+        <v>155707</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>316966</v>
+        <v>315660</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>462075</v>
+        <v>463344</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>756967</v>
+        <v>759378</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1461847</v>
+        <v>1463876</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2247254</v>
+        <v>2244614</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>864184</v>
+        <v>862506</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1564635</v>
+        <v>1565877</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2406696</v>
+        <v>2391816</v>
       </c>
     </row>
     <row r="36">
